--- a/medicine/Médecine vétérinaire/Gourme/Gourme.xlsx
+++ b/medicine/Médecine vétérinaire/Gourme/Gourme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gourme, aussi appelée angine du cheval, est une maladie contagieuse des équidés, causée par la bactérie Streptococcus equi equi[1]. Elle atteint généralement les équidés de moins de 5 ans. Il existe un vaccin préventif à injection labiale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gourme, aussi appelée angine du cheval, est une maladie contagieuse des équidés, causée par la bactérie Streptococcus equi equi. Elle atteint généralement les équidés de moins de 5 ans. Il existe un vaccin préventif à injection labiale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Baisse d'appétit ;
 Rejet nasal séreux, d'abord muqueux, puis purulent ;
@@ -546,7 +560,9 @@
           <t>Évolution de la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La gourme évolue en quatre phases. Les symptômes se manifestent de 3 à 14 jours après la contamination.
 Dans un premier temps, l'animal présente des signes d'abattement : fièvre, jetage séreux, inappétance ;
